--- a/ISABELA PO LIST.xlsx
+++ b/ISABELA PO LIST.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19320" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="hrsrep" sheetId="1" r:id="rId1"/>
     <sheet name="hrsrep (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="346">
   <si>
     <t>emempno</t>
   </si>
@@ -836,9 +836,6 @@
     <t>BAYAUA Gilda</t>
   </si>
   <si>
-    <t>BAYAUA JR. Rufino</t>
-  </si>
-  <si>
     <t>BERNARDINO Romeo</t>
   </si>
   <si>
@@ -1050,6 +1047,12 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>BAYAUA Rufino Jr.</t>
+  </si>
+  <si>
+    <t>DATEJOINED</t>
   </si>
 </sst>
 </file>
@@ -1381,27 +1384,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" t="s">
         <v>343</v>
       </c>
-      <c r="B1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1425,7 +1432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1489,36 +1496,36 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1526,7 +1533,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1534,7 +1541,7 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1542,7 +1549,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1550,7 +1557,7 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1558,7 +1565,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1566,7 +1573,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1574,7 +1581,7 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1582,7 +1589,7 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1590,7 +1597,7 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1598,7 +1605,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1606,7 +1613,7 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1614,7 +1621,7 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1622,7 +1629,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1630,7 +1637,7 @@
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1638,7 +1645,7 @@
         <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1646,7 +1653,7 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1654,7 +1661,7 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1662,7 +1669,7 @@
         <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1670,7 +1677,7 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1678,7 +1685,7 @@
         <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1686,7 +1693,7 @@
         <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1694,7 +1701,7 @@
         <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1702,7 +1709,7 @@
         <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1710,7 +1717,7 @@
         <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1718,7 +1725,7 @@
         <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1726,7 +1733,7 @@
         <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1734,7 +1741,7 @@
         <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1742,7 +1749,7 @@
         <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1750,7 +1757,7 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1758,7 +1765,7 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1766,7 +1773,7 @@
         <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1774,7 +1781,7 @@
         <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1782,7 +1789,7 @@
         <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1790,7 +1797,7 @@
         <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1798,7 +1805,7 @@
         <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1806,7 +1813,7 @@
         <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1814,7 +1821,7 @@
         <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1822,7 +1829,7 @@
         <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1830,7 +1837,7 @@
         <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1838,7 +1845,7 @@
         <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1846,7 +1853,7 @@
         <v>184</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1854,7 +1861,7 @@
         <v>187</v>
       </c>
       <c r="B58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1862,7 +1869,7 @@
         <v>191</v>
       </c>
       <c r="B59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1870,7 +1877,7 @@
         <v>193</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1878,7 +1885,7 @@
         <v>194</v>
       </c>
       <c r="B61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1886,7 +1893,7 @@
         <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1894,7 +1901,7 @@
         <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1902,7 +1909,7 @@
         <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1910,7 +1917,7 @@
         <v>209</v>
       </c>
       <c r="B65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1918,7 +1925,7 @@
         <v>213</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1926,7 +1933,7 @@
         <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1934,7 +1941,7 @@
         <v>220</v>
       </c>
       <c r="B68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1942,7 +1949,7 @@
         <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1950,7 +1957,7 @@
         <v>226</v>
       </c>
       <c r="B70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1958,7 +1965,7 @@
         <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1966,7 +1973,7 @@
         <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1974,7 +1981,7 @@
         <v>235</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1982,7 +1989,7 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1990,7 +1997,7 @@
         <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1998,7 +2005,7 @@
         <v>244</v>
       </c>
       <c r="B76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2006,7 +2013,7 @@
         <v>247</v>
       </c>
       <c r="B77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2014,7 +2021,7 @@
         <v>249</v>
       </c>
       <c r="B78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2022,7 +2029,7 @@
         <v>252</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2030,7 +2037,7 @@
         <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2038,7 +2045,7 @@
         <v>257</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2046,7 +2053,7 @@
         <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
